--- a/testData/CreateEntity/CreateEntity_OOFS_NewValues_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_NewValues_Test.xlsx
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="139">
   <si>
     <t>WorflowName</t>
   </si>
@@ -420,12 +420,34 @@
   </si>
   <si>
     <t>SuccessDefaultSales@gmail.com</t>
+  </si>
+  <si>
+    <t>0636453587</t>
+  </si>
+  <si>
+    <t>1113923041</t>
+  </si>
+  <si>
+    <t>5597209597</t>
+  </si>
+  <si>
+    <t>3758112996</t>
+  </si>
+  <si>
+    <t>2024-03-23</t>
+  </si>
+  <si>
+    <t>2024-03-23 12:44:00 PM</t>
+  </si>
+  <si>
+    <t>2024-03-23 12:47:51 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -792,55 +814,55 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.26953125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="2"/>
-    <col min="10" max="10" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.7265625" style="2"/>
-    <col min="15" max="15" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.7265625" style="2"/>
-    <col min="17" max="17" width="15.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.7265625" style="2"/>
-    <col min="22" max="22" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.453125" style="2" customWidth="1"/>
-    <col min="34" max="34" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="29.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="43" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18.36328125" style="2" customWidth="1"/>
-    <col min="46" max="46" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18" style="2" customWidth="1"/>
-    <col min="48" max="48" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="22.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="30.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="55" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="2" max="2" customWidth="true" style="2" width="22.26953125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="29.90625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="26.6328125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="14.0"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="16.453125"/>
+    <col min="9" max="9" style="2" width="8.7265625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="12.54296875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
+    <col min="13" max="14" style="2" width="8.7265625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
+    <col min="16" max="16" style="2" width="8.7265625"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="15.1796875"/>
+    <col min="18" max="19" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="10.453125"/>
+    <col min="21" max="21" style="2" width="8.7265625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="12.7265625"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="23.453125"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="11.7265625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="20.453125"/>
+    <col min="33" max="33" customWidth="true" style="2" width="20.453125"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.54296875"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.36328125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="14.0"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="11.90625"/>
+    <col min="38" max="40" bestFit="true" customWidth="true" style="2" width="17.81640625"/>
+    <col min="41" max="43" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
+    <col min="45" max="45" customWidth="true" style="2" width="18.36328125"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="47" max="47" customWidth="true" style="2" width="18.0"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="10.26953125"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.90625"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="22.7265625"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="2" width="30.26953125"/>
+    <col min="55" max="16384" style="2" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.35">
@@ -1026,8 +1048,8 @@
       <c r="F2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>110</v>
+      <c r="G2" t="s" s="2">
+        <v>132</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>68</v>
@@ -1050,14 +1072,14 @@
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="O2" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="P2" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>108</v>
+      <c r="Q2" t="s" s="2">
+        <v>137</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
@@ -1095,14 +1117,14 @@
       <c r="AC2" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>107</v>
+      <c r="AD2" t="s" s="2">
+        <v>136</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AF2" s="2" t="s">
-        <v>111</v>
+      <c r="AF2" t="s" s="2">
+        <v>133</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1131,8 +1153,8 @@
       <c r="AU2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AV2" s="2" t="s">
-        <v>112</v>
+      <c r="AV2" t="s" s="2">
+        <v>134</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>72</v>
@@ -1143,8 +1165,8 @@
       <c r="AY2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AZ2" s="2" t="s">
-        <v>113</v>
+      <c r="AZ2" t="s" s="2">
+        <v>135</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>74</v>
@@ -1176,55 +1198,55 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="38.26953125" style="2" customWidth="1"/>
-    <col min="30" max="30" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.36328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="26.36328125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="16.6328125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="23.90625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.6328125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.81640625"/>
+    <col min="29" max="29" customWidth="true" style="2" width="38.26953125"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.08984375"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.6328125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.90625"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="18.90625"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.90625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
+    <col min="53" max="16384" style="2" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.35">
@@ -1410,8 +1432,8 @@
       <c r="F2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>110</v>
+      <c r="G2" t="s" s="2">
+        <v>132</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>93</v>
@@ -1434,14 +1456,14 @@
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="O2" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="P2" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>109</v>
+      <c r="Q2" t="s" s="2">
+        <v>138</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
@@ -1479,14 +1501,14 @@
       <c r="AC2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>107</v>
+      <c r="AD2" t="s" s="2">
+        <v>136</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AF2" s="2" t="s">
-        <v>111</v>
+      <c r="AF2" t="s" s="2">
+        <v>133</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1515,8 +1537,8 @@
       <c r="AU2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AV2" s="2" t="s">
-        <v>112</v>
+      <c r="AV2" t="s" s="2">
+        <v>134</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>96</v>
@@ -1527,8 +1549,8 @@
       <c r="AY2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AZ2" s="2" t="s">
-        <v>113</v>
+      <c r="AZ2" t="s" s="2">
+        <v>135</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>97</v>
@@ -1559,52 +1581,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="35.26953125" style="2" customWidth="1"/>
-    <col min="30" max="30" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="29.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="24.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.36328125"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.6328125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.81640625"/>
+    <col min="29" max="29" customWidth="true" style="2" width="35.26953125"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.54296875"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.36328125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="15.1796875"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="24.54296875"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.90625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
+    <col min="53" max="16384" style="2" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.35">
@@ -1790,8 +1812,8 @@
       <c r="F2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>110</v>
+      <c r="G2" t="s" s="2">
+        <v>132</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>98</v>
@@ -1865,8 +1887,8 @@
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AF2" s="2" t="s">
-        <v>111</v>
+      <c r="AF2" t="s" s="2">
+        <v>133</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1895,8 +1917,8 @@
       <c r="AU2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AV2" s="2" t="s">
-        <v>112</v>
+      <c r="AV2" t="s" s="2">
+        <v>134</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>76</v>
@@ -1907,8 +1929,8 @@
       <c r="AY2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AZ2" s="2" t="s">
-        <v>113</v>
+      <c r="AZ2" t="s" s="2">
+        <v>135</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>77</v>
@@ -1937,53 +1959,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="50.6328125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.36328125"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.6328125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
+    <col min="28" max="28" customWidth="true" style="2" width="50.6328125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.08984375"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.08984375"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.6328125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.90625"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="12.54296875"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.90625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
+    <col min="53" max="16384" style="2" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.35">
@@ -2169,8 +2191,8 @@
       <c r="F2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>110</v>
+      <c r="G2" t="s" s="2">
+        <v>132</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>102</v>
@@ -2244,8 +2266,8 @@
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AF2" s="2" t="s">
-        <v>111</v>
+      <c r="AF2" t="s" s="2">
+        <v>133</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -2274,8 +2296,8 @@
       <c r="AU2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AV2" s="2" t="s">
-        <v>112</v>
+      <c r="AV2" t="s" s="2">
+        <v>134</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>104</v>
@@ -2286,8 +2308,8 @@
       <c r="AY2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AZ2" s="2" t="s">
-        <v>113</v>
+      <c r="AZ2" t="s" s="2">
+        <v>135</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>105</v>
@@ -2315,18 +2337,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.6328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.26953125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.81640625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.08984375"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="15.1796875"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.6328125"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="10.08984375"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="10.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.35">

--- a/testData/CreateEntity/CreateEntity_OOFS_NewValues_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_NewValues_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="191">
   <si>
     <t>WorflowName</t>
   </si>
@@ -347,30 +347,6 @@
     <t>02:35:55 PM</t>
   </si>
   <si>
-    <t>2024-03-19</t>
-  </si>
-  <si>
-    <t>2024-03-19 02:52:20 PM</t>
-  </si>
-  <si>
-    <t>2024-03-19 02:58:10 PM</t>
-  </si>
-  <si>
-    <t>0231907562</t>
-  </si>
-  <si>
-    <t>9596754413</t>
-  </si>
-  <si>
-    <t>9501926441</t>
-  </si>
-  <si>
-    <t>0472103025</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>RsoftIT</t>
   </si>
   <si>
@@ -422,25 +398,205 @@
     <t>SuccessDefaultSales@gmail.com</t>
   </si>
   <si>
-    <t>0636453587</t>
-  </si>
-  <si>
-    <t>1113923041</t>
-  </si>
-  <si>
-    <t>5597209597</t>
-  </si>
-  <si>
-    <t>3758112996</t>
-  </si>
-  <si>
     <t>2024-03-23</t>
   </si>
   <si>
-    <t>2024-03-23 12:44:00 PM</t>
-  </si>
-  <si>
     <t>2024-03-23 12:47:51 PM</t>
+  </si>
+  <si>
+    <t>2024-03-25</t>
+  </si>
+  <si>
+    <t>2024-03-25 07:05:46 PM</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>tskOOFS_CEOnly</t>
+  </si>
+  <si>
+    <t>Create Entity - CreateEntityTarget</t>
+  </si>
+  <si>
+    <t>5824290117</t>
+  </si>
+  <si>
+    <t>8861407357</t>
+  </si>
+  <si>
+    <t>0353385696</t>
+  </si>
+  <si>
+    <t>7971528101</t>
+  </si>
+  <si>
+    <t>3131982055</t>
+  </si>
+  <si>
+    <t>6461742230</t>
+  </si>
+  <si>
+    <t>3529392153</t>
+  </si>
+  <si>
+    <t>6992415332</t>
+  </si>
+  <si>
+    <t>2024-03-26</t>
+  </si>
+  <si>
+    <t>2024-03-26 06:06:23 PM</t>
+  </si>
+  <si>
+    <t>2024-03-26 06:10:44 PM</t>
+  </si>
+  <si>
+    <t>8043473015</t>
+  </si>
+  <si>
+    <t>7291249756</t>
+  </si>
+  <si>
+    <t>6347545943</t>
+  </si>
+  <si>
+    <t>7496410919</t>
+  </si>
+  <si>
+    <t>2024-03-26 06:32:20 PM</t>
+  </si>
+  <si>
+    <t>2024-03-26 06:36:43 PM</t>
+  </si>
+  <si>
+    <t>9750630416</t>
+  </si>
+  <si>
+    <t>1473707063</t>
+  </si>
+  <si>
+    <t>0370663469</t>
+  </si>
+  <si>
+    <t>3902369315</t>
+  </si>
+  <si>
+    <t>2024-03-26 06:58:35 PM</t>
+  </si>
+  <si>
+    <t>CT: Tue, Mar 26, 2024 at 7:01 PM</t>
+  </si>
+  <si>
+    <t>6164002342</t>
+  </si>
+  <si>
+    <t>4653767245</t>
+  </si>
+  <si>
+    <t>9898324491</t>
+  </si>
+  <si>
+    <t>7528514870</t>
+  </si>
+  <si>
+    <t>2024-03-27</t>
+  </si>
+  <si>
+    <t>2024-03-27 12:08:14 PM</t>
+  </si>
+  <si>
+    <t>0541015318</t>
+  </si>
+  <si>
+    <t>4054676489</t>
+  </si>
+  <si>
+    <t>2731911473</t>
+  </si>
+  <si>
+    <t>2000775411</t>
+  </si>
+  <si>
+    <t>4512879603</t>
+  </si>
+  <si>
+    <t>4813782774</t>
+  </si>
+  <si>
+    <t>8226061648</t>
+  </si>
+  <si>
+    <t>8513051768</t>
+  </si>
+  <si>
+    <t>1854070704</t>
+  </si>
+  <si>
+    <t>3078982401</t>
+  </si>
+  <si>
+    <t>0003060074</t>
+  </si>
+  <si>
+    <t>0164738460</t>
+  </si>
+  <si>
+    <t>2024-03-27 12:44:01 PM</t>
+  </si>
+  <si>
+    <t>CT: Wed, Mar 27, 2024 at 12:46 PM</t>
+  </si>
+  <si>
+    <t>2024-03-27 12:49:46 PM</t>
+  </si>
+  <si>
+    <t>CT: Wed, Mar 27, 2024 at 12:52 PM</t>
+  </si>
+  <si>
+    <t>CT: Wed, Mar 27, 2024 at 12:55 PM</t>
+  </si>
+  <si>
+    <t>2745383389</t>
+  </si>
+  <si>
+    <t>4927511934</t>
+  </si>
+  <si>
+    <t>3111438233</t>
+  </si>
+  <si>
+    <t>8476439756</t>
+  </si>
+  <si>
+    <t>2024-03-28</t>
+  </si>
+  <si>
+    <t>2024-03-28 03:52:05 PM</t>
+  </si>
+  <si>
+    <t>CT: Thu, Mar 28, 2024 at 3:54 PM</t>
+  </si>
+  <si>
+    <t>2525099235</t>
+  </si>
+  <si>
+    <t>2672978564</t>
+  </si>
+  <si>
+    <t>8983095293</t>
+  </si>
+  <si>
+    <t>5518093368</t>
+  </si>
+  <si>
+    <t>0033/09/14</t>
+  </si>
+  <si>
+    <t>2024-03-28 04:31:14 PM</t>
+  </si>
+  <si>
+    <t>CT: Thu, Mar 28, 2024 at 4:34 PM</t>
   </si>
 </sst>
 </file>
@@ -808,64 +964,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="2" max="2" customWidth="true" style="2" width="22.26953125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="29.90625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="26.6328125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="2" max="2" customWidth="true" style="2" width="22.28515625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="29.85546875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="26.5703125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
     <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="14.0"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="16.453125"/>
-    <col min="9" max="9" style="2" width="8.7265625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="12.54296875"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
-    <col min="13" max="14" style="2" width="8.7265625"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
-    <col min="16" max="16" style="2" width="8.7265625"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="15.1796875"/>
-    <col min="18" max="19" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="10.453125"/>
-    <col min="21" max="21" style="2" width="8.7265625"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="9" max="9" style="2" width="8.7109375"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="12.5703125"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="13" max="14" style="2" width="8.7109375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="16" max="16" style="2" width="8.7109375"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="15.140625"/>
+    <col min="18" max="19" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="21" max="21" style="2" width="8.7109375"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
     <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="12.7265625"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="23.453125"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="11.7265625"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="20.453125"/>
-    <col min="33" max="33" customWidth="true" style="2" width="20.453125"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.54296875"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.36328125"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="12.7109375"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="23.42578125"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="11.7109375"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="33" max="33" customWidth="true" style="2" width="20.42578125"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.5703125"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.42578125"/>
     <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="14.0"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="11.90625"/>
-    <col min="38" max="40" bestFit="true" customWidth="true" style="2" width="17.81640625"/>
-    <col min="41" max="43" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
-    <col min="45" max="45" customWidth="true" style="2" width="18.36328125"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="38" max="40" bestFit="true" customWidth="true" style="2" width="17.85546875"/>
+    <col min="41" max="43" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="45" max="45" customWidth="true" style="2" width="18.42578125"/>
     <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="18.0"/>
     <col min="47" max="47" customWidth="true" style="2" width="18.0"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="10.26953125"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.90625"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="22.7265625"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" style="2" width="30.26953125"/>
-    <col min="55" max="16384" style="2" width="8.7265625"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="10.28515625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="22.7109375"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="2" width="30.28515625"/>
+    <col min="55" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>84</v>
       </c>
@@ -1025,11 +1181,11 @@
       <c r="BA1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BB1" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:54" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>90</v>
       </c>
@@ -1049,7 +1205,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>68</v>
@@ -1073,13 +1229,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>136</v>
+        <v>188</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>106</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
@@ -1118,13 +1274,13 @@
         <v>95</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1133,13 +1289,13 @@
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>128</v>
       </c>
       <c r="AR2" s="2" t="s">
         <v>90</v>
@@ -1154,7 +1310,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>72</v>
@@ -1166,13 +1322,13 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="BB2" s="2" t="s">
-        <v>82</v>
+      <c r="BB2" t="s" s="2">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -1196,60 +1352,60 @@
       <selection activeCell="AZ2" sqref="AZ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="26.36328125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="16.6328125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="23.90625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="26.42578125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="16.5703125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="23.85546875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
     <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.6328125"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
     <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.81640625"/>
-    <col min="29" max="29" customWidth="true" style="2" width="38.26953125"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.08984375"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.6328125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.90625"/>
-    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
-    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.85546875"/>
+    <col min="29" max="29" customWidth="true" style="2" width="38.28515625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.5703125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
     <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="18.90625"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.90625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
-    <col min="53" max="16384" style="2" width="8.7265625"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="18.85546875"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
+    <col min="53" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>84</v>
       </c>
@@ -1409,11 +1565,11 @@
       <c r="BA1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BB1" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:54" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>90</v>
       </c>
@@ -1433,7 +1589,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>93</v>
@@ -1457,13 +1613,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>106</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
@@ -1502,13 +1658,13 @@
         <v>95</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1538,7 +1694,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>96</v>
@@ -1550,13 +1706,13 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="BB2" s="2" t="s">
-        <v>82</v>
+      <c r="BB2" t="s" s="2">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -1579,57 +1735,57 @@
       <selection activeCell="AZ2" sqref="AZ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.36328125"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
     <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.6328125"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
     <col min="23" max="24" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.81640625"/>
-    <col min="29" max="29" customWidth="true" style="2" width="35.26953125"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.54296875"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.36328125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="15.1796875"/>
-    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
-    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.85546875"/>
+    <col min="29" max="29" customWidth="true" style="2" width="35.28515625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.5703125"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.42578125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="15.140625"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
     <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="24.54296875"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.90625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
-    <col min="53" max="16384" style="2" width="8.7265625"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="24.5703125"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
+    <col min="53" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>84</v>
       </c>
@@ -1793,7 +1949,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>86</v>
       </c>
@@ -1813,7 +1969,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>98</v>
@@ -1888,7 +2044,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1918,7 +2074,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>76</v>
@@ -1930,7 +2086,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>77</v>
@@ -1957,58 +2113,58 @@
       <selection activeCell="BC2" sqref="BC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.36328125"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
     <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.6328125"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="10.140625"/>
     <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
-    <col min="28" max="28" customWidth="true" style="2" width="50.6328125"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.08984375"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.08984375"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.6328125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.90625"/>
-    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
-    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="28" max="28" customWidth="true" style="2" width="50.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.5703125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
     <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="12.54296875"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.90625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
-    <col min="53" max="16384" style="2" width="8.7265625"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="12.5703125"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
+    <col min="53" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>84</v>
       </c>
@@ -2172,7 +2328,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>86</v>
       </c>
@@ -2192,7 +2348,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>102</v>
@@ -2267,7 +2423,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -2297,7 +2453,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>104</v>
@@ -2309,7 +2465,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>105</v>
@@ -2331,27 +2487,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="AQ2" sqref="AQ2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="18.0"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.6328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.26953125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.81640625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.08984375"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="15.1796875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="13.6328125"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.08984375"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.5703125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.28515625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.85546875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.140625"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="15.140625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.5703125"/>
+    <col min="29" max="29" customWidth="true" width="49.85546875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="10.140625"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="10.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>84</v>
       </c>
@@ -2515,7 +2672,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:54" s="2" customFormat="1" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:54" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>90</v>
       </c>
@@ -2526,10 +2683,10 @@
         <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>41</v>
@@ -2538,25 +2695,25 @@
         <v>1234567890</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="O2" s="8">
         <v>45371</v>
@@ -2568,7 +2725,7 @@
         <v>45371.646504629629</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>44</v>
@@ -2577,7 +2734,7 @@
         <v>37</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="V2" s="3" t="s">
         <v>94</v>
@@ -2592,16 +2749,16 @@
         <v>48</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="AD2" s="8">
         <v>45371</v>
@@ -2613,16 +2770,16 @@
         <v>1234567890</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="AH2" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="AR2" s="2" t="s">
         <v>90</v>
@@ -2640,10 +2797,10 @@
         <v>1234567890</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="AY2" s="3" t="s">
         <v>42</v>
@@ -2652,7 +2809,7 @@
         <v>1234567890</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="BB2" s="2" t="s">
         <v>82</v>

--- a/testData/CreateEntity/CreateEntity_OOFS_NewValues_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_NewValues_Test.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="145">
   <si>
     <t>WorflowName</t>
   </si>
@@ -398,18 +398,6 @@
     <t>SuccessDefaultSales@gmail.com</t>
   </si>
   <si>
-    <t>2024-03-23</t>
-  </si>
-  <si>
-    <t>2024-03-23 12:47:51 PM</t>
-  </si>
-  <si>
-    <t>2024-03-25</t>
-  </si>
-  <si>
-    <t>2024-03-25 07:05:46 PM</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -419,184 +407,58 @@
     <t>Create Entity - CreateEntityTarget</t>
   </si>
   <si>
-    <t>5824290117</t>
-  </si>
-  <si>
-    <t>8861407357</t>
-  </si>
-  <si>
-    <t>0353385696</t>
-  </si>
-  <si>
-    <t>7971528101</t>
-  </si>
-  <si>
-    <t>3131982055</t>
-  </si>
-  <si>
-    <t>6461742230</t>
-  </si>
-  <si>
-    <t>3529392153</t>
-  </si>
-  <si>
-    <t>6992415332</t>
-  </si>
-  <si>
-    <t>2024-03-26</t>
-  </si>
-  <si>
-    <t>2024-03-26 06:06:23 PM</t>
-  </si>
-  <si>
-    <t>2024-03-26 06:10:44 PM</t>
-  </si>
-  <si>
-    <t>8043473015</t>
-  </si>
-  <si>
-    <t>7291249756</t>
-  </si>
-  <si>
-    <t>6347545943</t>
-  </si>
-  <si>
-    <t>7496410919</t>
-  </si>
-  <si>
-    <t>2024-03-26 06:32:20 PM</t>
-  </si>
-  <si>
-    <t>2024-03-26 06:36:43 PM</t>
-  </si>
-  <si>
-    <t>9750630416</t>
-  </si>
-  <si>
-    <t>1473707063</t>
-  </si>
-  <si>
-    <t>0370663469</t>
-  </si>
-  <si>
-    <t>3902369315</t>
-  </si>
-  <si>
-    <t>2024-03-26 06:58:35 PM</t>
-  </si>
-  <si>
-    <t>CT: Tue, Mar 26, 2024 at 7:01 PM</t>
-  </si>
-  <si>
-    <t>6164002342</t>
-  </si>
-  <si>
-    <t>4653767245</t>
-  </si>
-  <si>
-    <t>9898324491</t>
-  </si>
-  <si>
-    <t>7528514870</t>
-  </si>
-  <si>
-    <t>2024-03-27</t>
-  </si>
-  <si>
-    <t>2024-03-27 12:08:14 PM</t>
-  </si>
-  <si>
-    <t>0541015318</t>
-  </si>
-  <si>
-    <t>4054676489</t>
-  </si>
-  <si>
-    <t>2731911473</t>
-  </si>
-  <si>
-    <t>2000775411</t>
-  </si>
-  <si>
-    <t>4512879603</t>
-  </si>
-  <si>
-    <t>4813782774</t>
-  </si>
-  <si>
-    <t>8226061648</t>
-  </si>
-  <si>
-    <t>8513051768</t>
-  </si>
-  <si>
-    <t>1854070704</t>
-  </si>
-  <si>
-    <t>3078982401</t>
-  </si>
-  <si>
-    <t>0003060074</t>
-  </si>
-  <si>
-    <t>0164738460</t>
-  </si>
-  <si>
-    <t>2024-03-27 12:44:01 PM</t>
-  </si>
-  <si>
-    <t>CT: Wed, Mar 27, 2024 at 12:46 PM</t>
-  </si>
-  <si>
-    <t>2024-03-27 12:49:46 PM</t>
-  </si>
-  <si>
-    <t>CT: Wed, Mar 27, 2024 at 12:52 PM</t>
-  </si>
-  <si>
-    <t>CT: Wed, Mar 27, 2024 at 12:55 PM</t>
-  </si>
-  <si>
-    <t>2745383389</t>
-  </si>
-  <si>
-    <t>4927511934</t>
-  </si>
-  <si>
-    <t>3111438233</t>
-  </si>
-  <si>
-    <t>8476439756</t>
-  </si>
-  <si>
-    <t>2024-03-28</t>
-  </si>
-  <si>
-    <t>2024-03-28 03:52:05 PM</t>
-  </si>
-  <si>
-    <t>CT: Thu, Mar 28, 2024 at 3:54 PM</t>
-  </si>
-  <si>
-    <t>2525099235</t>
-  </si>
-  <si>
-    <t>2672978564</t>
-  </si>
-  <si>
-    <t>8983095293</t>
-  </si>
-  <si>
-    <t>5518093368</t>
-  </si>
-  <si>
-    <t>0033/09/14</t>
-  </si>
-  <si>
-    <t>2024-03-28 04:31:14 PM</t>
-  </si>
-  <si>
-    <t>CT: Thu, Mar 28, 2024 at 4:34 PM</t>
+    <t>7436841371</t>
+  </si>
+  <si>
+    <t>7812549943</t>
+  </si>
+  <si>
+    <t>8119921498</t>
+  </si>
+  <si>
+    <t>1323072096</t>
+  </si>
+  <si>
+    <t>2024-04-06</t>
+  </si>
+  <si>
+    <t>2024-04-06 02:19:49 PM</t>
+  </si>
+  <si>
+    <t>CT: Sat, Apr 06, 2024 at 2:22 PM</t>
+  </si>
+  <si>
+    <t>2024-04-06 02:25:40 PM</t>
+  </si>
+  <si>
+    <t>CT: Sat, Apr 06, 2024 at 2:31 PM</t>
+  </si>
+  <si>
+    <t>5803514002</t>
+  </si>
+  <si>
+    <t>2402685023</t>
+  </si>
+  <si>
+    <t>2392196750</t>
+  </si>
+  <si>
+    <t>7013689143</t>
+  </si>
+  <si>
+    <t>2024-04-06 02:50:13 PM</t>
+  </si>
+  <si>
+    <t>CT: Sat, Apr 06, 2024 at 2:52 PM</t>
+  </si>
+  <si>
+    <t>2024-04-06 02:56:00 PM</t>
+  </si>
+  <si>
+    <t>CT: Sat, Apr 06, 2024 at 2:58 PM</t>
+  </si>
+  <si>
+    <t>CT: Sat, Apr 06, 2024 at 3:01 PM</t>
   </si>
 </sst>
 </file>
@@ -1002,8 +864,8 @@
     <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
     <col min="33" max="33" customWidth="true" style="2" width="20.42578125"/>
     <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.5703125"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.42578125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="14.0"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="31.28515625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="15.85546875"/>
     <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
     <col min="38" max="40" bestFit="true" customWidth="true" style="2" width="17.85546875"/>
     <col min="41" max="43" bestFit="true" customWidth="true" style="2" width="10.140625"/>
@@ -1205,7 +1067,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>68</v>
@@ -1229,13 +1091,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>106</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
@@ -1274,13 +1136,13 @@
         <v>95</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>181</v>
+        <v>131</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1289,13 +1151,13 @@
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AR2" s="2" t="s">
         <v>90</v>
@@ -1310,7 +1172,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>72</v>
@@ -1322,13 +1184,13 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>74</v>
       </c>
       <c r="BB2" t="s" s="2">
-        <v>190</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1589,7 +1451,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>93</v>
@@ -1613,13 +1475,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>106</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
@@ -1658,13 +1520,13 @@
         <v>95</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1694,7 +1556,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>96</v>
@@ -1706,13 +1568,13 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>97</v>
       </c>
       <c r="BB2" t="s" s="2">
-        <v>176</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1969,7 +1831,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>98</v>
@@ -2044,7 +1906,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -2074,7 +1936,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>76</v>
@@ -2086,7 +1948,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>77</v>
@@ -2348,7 +2210,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>102</v>
@@ -2423,7 +2285,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -2453,7 +2315,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>104</v>
@@ -2465,7 +2327,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>105</v>
@@ -2776,10 +2638,10 @@
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AR2" s="2" t="s">
         <v>90</v>

--- a/testData/CreateEntity/CreateEntity_OOFS_NewValues_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_NewValues_Test.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="155">
   <si>
     <t>WorflowName</t>
   </si>
@@ -459,6 +459,36 @@
   </si>
   <si>
     <t>CT: Sat, Apr 06, 2024 at 3:01 PM</t>
+  </si>
+  <si>
+    <t>6043602472</t>
+  </si>
+  <si>
+    <t>6508789240</t>
+  </si>
+  <si>
+    <t>3577022448</t>
+  </si>
+  <si>
+    <t>9441122515</t>
+  </si>
+  <si>
+    <t>2024-04-09</t>
+  </si>
+  <si>
+    <t>2024-04-09 05:51:26 PM</t>
+  </si>
+  <si>
+    <t>CT: Tue, Apr 09, 2024 at 5:54 PM</t>
+  </si>
+  <si>
+    <t>2024-04-09 05:57:35 PM</t>
+  </si>
+  <si>
+    <t>CT: Tue, Apr 09, 2024 at 6:00 PM</t>
+  </si>
+  <si>
+    <t>CT: Tue, Apr 09, 2024 at 6:03 PM</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +1097,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>68</v>
@@ -1091,13 +1121,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>106</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
@@ -1136,13 +1166,13 @@
         <v>95</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1172,7 +1202,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>72</v>
@@ -1184,13 +1214,13 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>74</v>
       </c>
       <c r="BB2" t="s" s="2">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1451,7 +1481,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>93</v>
@@ -1475,13 +1505,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>106</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
@@ -1520,13 +1550,13 @@
         <v>95</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1556,7 +1586,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>96</v>
@@ -1568,13 +1598,13 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>97</v>
       </c>
       <c r="BB2" t="s" s="2">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1831,7 +1861,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>98</v>
@@ -1906,7 +1936,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1936,7 +1966,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>76</v>
@@ -1948,7 +1978,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>77</v>
@@ -2210,7 +2240,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>102</v>
@@ -2285,7 +2315,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -2315,7 +2345,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>104</v>
@@ -2327,7 +2357,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>105</v>

--- a/testData/CreateEntity/CreateEntity_OOFS_NewValues_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_NewValues_Test.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="179">
   <si>
     <t>WorflowName</t>
   </si>
@@ -489,6 +489,78 @@
   </si>
   <si>
     <t>CT: Tue, Apr 09, 2024 at 6:03 PM</t>
+  </si>
+  <si>
+    <t>4489758957</t>
+  </si>
+  <si>
+    <t>4539508583</t>
+  </si>
+  <si>
+    <t>5446493340</t>
+  </si>
+  <si>
+    <t>6746013565</t>
+  </si>
+  <si>
+    <t>4317336905</t>
+  </si>
+  <si>
+    <t>9414089752</t>
+  </si>
+  <si>
+    <t>3251020891</t>
+  </si>
+  <si>
+    <t>5941663653</t>
+  </si>
+  <si>
+    <t>2024-04-10</t>
+  </si>
+  <si>
+    <t>02:35:55 AM</t>
+  </si>
+  <si>
+    <t>2024-04-10 11:47:04 AM</t>
+  </si>
+  <si>
+    <t>CT: Wed, Apr 10, 2024 at 11:50 AM</t>
+  </si>
+  <si>
+    <t>2024-04-10 11:53:20 AM</t>
+  </si>
+  <si>
+    <t>CT: Wed, Apr 10, 2024 at 11:56 AM</t>
+  </si>
+  <si>
+    <t>CT: Wed, Apr 10, 2024 at 11:59 AM</t>
+  </si>
+  <si>
+    <t>8023685280</t>
+  </si>
+  <si>
+    <t>8421323457</t>
+  </si>
+  <si>
+    <t>3702023982</t>
+  </si>
+  <si>
+    <t>3592060740</t>
+  </si>
+  <si>
+    <t>2024-04-10 12:11:37 PM</t>
+  </si>
+  <si>
+    <t>CT: Wed, Apr 10, 2024 at 12:14 PM</t>
+  </si>
+  <si>
+    <t>2024-04-10 12:17:52 PM</t>
+  </si>
+  <si>
+    <t>CT: Wed, Apr 10, 2024 at 12:20 PM</t>
+  </si>
+  <si>
+    <t>CT: Wed, Apr 10, 2024 at 12:24 PM</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1169,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>68</v>
@@ -1121,13 +1193,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>106</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
@@ -1166,13 +1238,13 @@
         <v>95</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1202,7 +1274,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>72</v>
@@ -1214,13 +1286,13 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>74</v>
       </c>
       <c r="BB2" t="s" s="2">
-        <v>151</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1481,7 +1553,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>93</v>
@@ -1505,13 +1577,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>106</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
@@ -1550,13 +1622,13 @@
         <v>95</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1586,7 +1658,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>96</v>
@@ -1598,13 +1670,13 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>97</v>
       </c>
       <c r="BB2" t="s" s="2">
-        <v>154</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1861,7 +1933,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>98</v>
@@ -1936,7 +2008,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1966,7 +2038,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>76</v>
@@ -1978,7 +2050,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>77</v>
@@ -2240,7 +2312,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>102</v>
@@ -2315,7 +2387,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -2345,7 +2417,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>104</v>
@@ -2357,7 +2429,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>105</v>

--- a/testData/CreateEntity/CreateEntity_OOFS_NewValues_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_NewValues_Test.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="183">
   <si>
     <t>WorflowName</t>
   </si>
@@ -561,6 +561,18 @@
   </si>
   <si>
     <t>CT: Wed, Apr 10, 2024 at 12:24 PM</t>
+  </si>
+  <si>
+    <t>2670941835</t>
+  </si>
+  <si>
+    <t>0482100564</t>
+  </si>
+  <si>
+    <t>0234851072</t>
+  </si>
+  <si>
+    <t>0286435996</t>
   </si>
 </sst>
 </file>
@@ -1169,7 +1181,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>68</v>
@@ -1244,7 +1256,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1274,7 +1286,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>72</v>
@@ -1286,7 +1298,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>74</v>
@@ -1553,7 +1565,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>93</v>
@@ -1628,7 +1640,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1658,7 +1670,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>96</v>
@@ -1670,7 +1682,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>97</v>
@@ -1933,7 +1945,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>98</v>
@@ -2008,7 +2020,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -2038,7 +2050,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>76</v>
@@ -2050,7 +2062,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>77</v>
@@ -2312,7 +2324,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>102</v>
@@ -2387,7 +2399,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -2417,7 +2429,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>104</v>
@@ -2429,7 +2441,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>105</v>

--- a/testData/CreateEntity/CreateEntity_OOFS_NewValues_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_NewValues_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="126">
   <si>
     <t>WorflowName</t>
   </si>
@@ -262,15 +262,9 @@
     <t>5</t>
   </si>
   <si>
-    <t>2024-03-06</t>
-  </si>
-  <si>
     <t>CurrentTime</t>
   </si>
   <si>
-    <t>2024-03-06 01:44:34 PM</t>
-  </si>
-  <si>
     <t>CT. Wed, Mar 06, 2024 at 1:49 PM</t>
   </si>
   <si>
@@ -292,9 +286,6 @@
     <t xml:space="preserve"> Create Entity - CreateEntityTarget</t>
   </si>
   <si>
-    <t xml:space="preserve"> tskOOFS_CEOnly</t>
-  </si>
-  <si>
     <t>CreateEntitySource</t>
   </si>
   <si>
@@ -310,10 +301,6 @@
     <t>11111111111</t>
   </si>
   <si>
-    <t>India's First Lead Management System with
-"Auto Lead Call Distribution With Call Recording"</t>
-  </si>
-  <si>
     <t>SummaryAddNewLead@gmail.com</t>
   </si>
   <si>
@@ -326,9 +313,6 @@
     <t>DuplicateEnquiry@gmail.com</t>
   </si>
   <si>
-    <t>Sales Team Management module helps sales team to plan, prioritize daily activities such as calls, followups &amp; Visits. The module consists of Activity Screen, Due Date, Time, Email/SMS Reminders, Activity Completion Notes.</t>
-  </si>
-  <si>
     <t>Edit Record</t>
   </si>
   <si>
@@ -383,9 +367,6 @@
     <t>Enquiry about CRM</t>
   </si>
   <si>
-    <t>It has turned out to be a pharma week of sorts, in some ways unexpectedly so. In a completely non-medical sense, pharma companies were among those named in the purchase of electoral bonds, over the week. While the details on who gave whom exactly what amount when will be clear in a couple of days, it is a clear indication of the growing clout of the pharma sector in the country</t>
-  </si>
-  <si>
     <t>Moderate</t>
   </si>
   <si>
@@ -398,188 +379,34 @@
     <t>SuccessDefaultSales@gmail.com</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>tskOOFS_CEOnly</t>
   </si>
   <si>
     <t>Create Entity - CreateEntityTarget</t>
   </si>
   <si>
-    <t>7436841371</t>
-  </si>
-  <si>
-    <t>7812549943</t>
-  </si>
-  <si>
-    <t>8119921498</t>
-  </si>
-  <si>
-    <t>1323072096</t>
-  </si>
-  <si>
-    <t>2024-04-06</t>
-  </si>
-  <si>
-    <t>2024-04-06 02:19:49 PM</t>
-  </si>
-  <si>
-    <t>CT: Sat, Apr 06, 2024 at 2:22 PM</t>
-  </si>
-  <si>
-    <t>2024-04-06 02:25:40 PM</t>
-  </si>
-  <si>
-    <t>CT: Sat, Apr 06, 2024 at 2:31 PM</t>
-  </si>
-  <si>
-    <t>5803514002</t>
-  </si>
-  <si>
-    <t>2402685023</t>
-  </si>
-  <si>
-    <t>2392196750</t>
-  </si>
-  <si>
-    <t>7013689143</t>
-  </si>
-  <si>
-    <t>2024-04-06 02:50:13 PM</t>
-  </si>
-  <si>
-    <t>CT: Sat, Apr 06, 2024 at 2:52 PM</t>
-  </si>
-  <si>
-    <t>2024-04-06 02:56:00 PM</t>
-  </si>
-  <si>
-    <t>CT: Sat, Apr 06, 2024 at 2:58 PM</t>
-  </si>
-  <si>
-    <t>CT: Sat, Apr 06, 2024 at 3:01 PM</t>
-  </si>
-  <si>
-    <t>6043602472</t>
-  </si>
-  <si>
-    <t>6508789240</t>
-  </si>
-  <si>
-    <t>3577022448</t>
-  </si>
-  <si>
-    <t>9441122515</t>
-  </si>
-  <si>
-    <t>2024-04-09</t>
-  </si>
-  <si>
-    <t>2024-04-09 05:51:26 PM</t>
-  </si>
-  <si>
-    <t>CT: Tue, Apr 09, 2024 at 5:54 PM</t>
-  </si>
-  <si>
-    <t>2024-04-09 05:57:35 PM</t>
-  </si>
-  <si>
-    <t>CT: Tue, Apr 09, 2024 at 6:00 PM</t>
-  </si>
-  <si>
-    <t>CT: Tue, Apr 09, 2024 at 6:03 PM</t>
-  </si>
-  <si>
-    <t>4489758957</t>
-  </si>
-  <si>
-    <t>4539508583</t>
-  </si>
-  <si>
-    <t>5446493340</t>
-  </si>
-  <si>
-    <t>6746013565</t>
-  </si>
-  <si>
-    <t>4317336905</t>
-  </si>
-  <si>
-    <t>9414089752</t>
-  </si>
-  <si>
-    <t>3251020891</t>
-  </si>
-  <si>
-    <t>5941663653</t>
-  </si>
-  <si>
-    <t>2024-04-10</t>
-  </si>
-  <si>
-    <t>02:35:55 AM</t>
-  </si>
-  <si>
-    <t>2024-04-10 11:47:04 AM</t>
-  </si>
-  <si>
-    <t>CT: Wed, Apr 10, 2024 at 11:50 AM</t>
-  </si>
-  <si>
-    <t>2024-04-10 11:53:20 AM</t>
-  </si>
-  <si>
-    <t>CT: Wed, Apr 10, 2024 at 11:56 AM</t>
-  </si>
-  <si>
-    <t>CT: Wed, Apr 10, 2024 at 11:59 AM</t>
-  </si>
-  <si>
-    <t>8023685280</t>
-  </si>
-  <si>
-    <t>8421323457</t>
-  </si>
-  <si>
-    <t>3702023982</t>
-  </si>
-  <si>
-    <t>3592060740</t>
-  </si>
-  <si>
-    <t>2024-04-10 12:11:37 PM</t>
-  </si>
-  <si>
-    <t>CT: Wed, Apr 10, 2024 at 12:14 PM</t>
-  </si>
-  <si>
-    <t>2024-04-10 12:17:52 PM</t>
-  </si>
-  <si>
-    <t>CT: Wed, Apr 10, 2024 at 12:20 PM</t>
-  </si>
-  <si>
-    <t>CT: Wed, Apr 10, 2024 at 12:24 PM</t>
-  </si>
-  <si>
-    <t>2670941835</t>
-  </si>
-  <si>
-    <t>0482100564</t>
-  </si>
-  <si>
-    <t>0234851072</t>
-  </si>
-  <si>
-    <t>0286435996</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Test Enquiry Text Area</t>
+  </si>
+  <si>
+    <t>2885331849</t>
+  </si>
+  <si>
+    <t>6994653209</t>
+  </si>
+  <si>
+    <t>2028950444</t>
+  </si>
+  <si>
+    <t>9932129670</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -940,69 +767,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="2" max="2" customWidth="true" style="2" width="22.28515625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="29.85546875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.140625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="26.5703125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="14.0"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
-    <col min="9" max="9" style="2" width="8.7109375"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="12.5703125"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
-    <col min="13" max="14" style="2" width="8.7109375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="10.140625"/>
-    <col min="16" max="16" style="2" width="8.7109375"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="15.140625"/>
-    <col min="18" max="19" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
-    <col min="21" max="21" style="2" width="8.7109375"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="13.140625"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="12.7109375"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="23.140625"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="23.42578125"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="11.7109375"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="13.140625"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
-    <col min="33" max="33" customWidth="true" style="2" width="20.42578125"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.5703125"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="31.28515625"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="15.85546875"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="38" max="40" bestFit="true" customWidth="true" style="2" width="17.85546875"/>
-    <col min="41" max="43" bestFit="true" customWidth="true" style="2" width="10.140625"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
-    <col min="45" max="45" customWidth="true" style="2" width="18.42578125"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="47" max="47" customWidth="true" style="2" width="18.0"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="10.28515625"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="14.140625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="22.7109375"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" style="2" width="30.28515625"/>
-    <col min="55" max="16384" style="2" width="8.7109375"/>
+    <col min="1" max="1" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="2"/>
+    <col min="10" max="10" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.7265625" style="2"/>
+    <col min="15" max="15" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7265625" style="2"/>
+    <col min="17" max="17" width="15.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.7265625" style="2"/>
+    <col min="22" max="22" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.453125" style="2" customWidth="1"/>
+    <col min="34" max="34" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="31.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="43" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.453125" style="2" customWidth="1"/>
+    <col min="46" max="46" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18" style="2" customWidth="1"/>
+    <col min="48" max="48" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="22.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="30.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1128,10 +955,10 @@
         <v>47</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AT1" s="2" t="s">
         <v>49</v>
@@ -1157,19 +984,19 @@
       <c r="BA1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BB1" t="s" s="2">
-        <v>80</v>
+      <c r="BB1" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
@@ -1180,8 +1007,8 @@
       <c r="F2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G2" t="s" s="2">
-        <v>179</v>
+      <c r="G2" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>68</v>
@@ -1204,14 +1031,8 @@
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="P2" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="Q2" t="s" s="2">
-        <v>174</v>
+      <c r="P2" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
@@ -1247,16 +1068,13 @@
         <v>71</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AF2" t="s" s="2">
-        <v>180</v>
+      <c r="AF2" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1265,19 +1083,19 @@
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>124</v>
+        <v>118</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AS2" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>50</v>
@@ -1285,8 +1103,8 @@
       <c r="AU2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AV2" t="s" s="2">
-        <v>181</v>
+      <c r="AV2" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>72</v>
@@ -1297,14 +1115,11 @@
       <c r="AY2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AZ2" t="s" s="2">
-        <v>182</v>
+      <c r="AZ2" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="BB2" t="s" s="2">
-        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1324,69 +1139,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="AZ2" sqref="AZ2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="11.140625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="26.42578125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="16.5703125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="23.85546875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.85546875"/>
-    <col min="29" max="29" customWidth="true" style="2" width="38.28515625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.140625"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.5703125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
-    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="18.85546875"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
-    <col min="53" max="16384" style="2" width="8.7109375"/>
+    <col min="1" max="1" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="38.26953125" style="2" customWidth="1"/>
+    <col min="30" max="30" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1512,10 +1327,10 @@
         <v>47</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AT1" s="2" t="s">
         <v>49</v>
@@ -1541,19 +1356,19 @@
       <c r="BA1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BB1" t="s" s="2">
-        <v>80</v>
+      <c r="BB1" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
@@ -1564,11 +1379,11 @@
       <c r="F2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G2" t="s" s="2">
-        <v>179</v>
+      <c r="G2" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I2" s="2">
         <v>3</v>
@@ -1588,14 +1403,8 @@
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="P2" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="Q2" t="s" s="2">
-        <v>176</v>
+      <c r="P2" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
@@ -1610,7 +1419,7 @@
         <v>65</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="W2" s="7">
         <v>10000</v>
@@ -1631,16 +1440,13 @@
         <v>71</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AF2" t="s" s="2">
-        <v>180</v>
+      <c r="AF2" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1649,19 +1455,19 @@
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="AL2" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AS2" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>50</v>
@@ -1669,11 +1475,11 @@
       <c r="AU2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AV2" t="s" s="2">
-        <v>181</v>
+      <c r="AV2" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>73</v>
@@ -1681,14 +1487,11 @@
       <c r="AY2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AZ2" t="s" s="2">
-        <v>182</v>
+      <c r="AZ2" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="BB2" t="s" s="2">
-        <v>178</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1707,66 +1510,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="AZ2" sqref="AZ2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" style="2" width="11.140625"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7109375"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
-    <col min="23" max="24" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.85546875"/>
-    <col min="29" max="29" customWidth="true" style="2" width="35.28515625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.5703125"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.42578125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="15.140625"/>
-    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
-    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="24.5703125"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
-    <col min="53" max="16384" style="2" width="8.7109375"/>
+    <col min="1" max="1" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="35.26953125" style="2" customWidth="1"/>
+    <col min="30" max="30" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="29.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="24.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1892,10 +1695,10 @@
         <v>47</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AT1" s="2" t="s">
         <v>49</v>
@@ -1922,18 +1725,18 @@
         <v>56</v>
       </c>
       <c r="BB1" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
@@ -1944,11 +1747,11 @@
       <c r="F2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G2" t="s" s="2">
-        <v>179</v>
+      <c r="G2" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I2" s="2">
         <v>3</v>
@@ -1968,15 +1771,9 @@
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="P2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
       </c>
@@ -1990,7 +1787,7 @@
         <v>65</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="W2" s="7">
         <v>10000</v>
@@ -2005,22 +1802,19 @@
         <v>69</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>71</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AF2" t="s" s="2">
-        <v>180</v>
+      <c r="AF2" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -2029,19 +1823,19 @@
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="AL2" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AS2" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>50</v>
@@ -2049,8 +1843,8 @@
       <c r="AU2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AV2" t="s" s="2">
-        <v>181</v>
+      <c r="AV2" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>76</v>
@@ -2061,8 +1855,8 @@
       <c r="AY2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AZ2" t="s" s="2">
-        <v>182</v>
+      <c r="AZ2" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>77</v>
@@ -2085,67 +1879,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="BC2" sqref="BC2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" style="2" width="11.140625"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7109375"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="10.140625"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
-    <col min="28" max="28" customWidth="true" style="2" width="50.5703125"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.140625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.140625"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.5703125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
-    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="12.5703125"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
-    <col min="53" max="16384" style="2" width="8.7109375"/>
+    <col min="1" max="1" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="50.54296875" style="2" customWidth="1"/>
+    <col min="29" max="29" width="12.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -2271,10 +2065,10 @@
         <v>47</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AT1" s="2" t="s">
         <v>49</v>
@@ -2301,33 +2095,33 @@
         <v>56</v>
       </c>
       <c r="BB1" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G2" t="s" s="2">
-        <v>179</v>
+      <c r="G2" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I2" s="2">
         <v>3</v>
@@ -2347,15 +2141,9 @@
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="P2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
       </c>
@@ -2369,7 +2157,7 @@
         <v>65</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="W2" s="7">
         <v>10000</v>
@@ -2384,22 +2172,19 @@
         <v>69</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AC2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>79</v>
+      <c r="AC2" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AF2" t="s" s="2">
-        <v>180</v>
+      <c r="AF2" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -2408,19 +2193,19 @@
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="AL2" s="2" t="s">
         <v>78</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AS2" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>50</v>
@@ -2428,11 +2213,11 @@
       <c r="AU2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AV2" t="s" s="2">
-        <v>181</v>
+      <c r="AV2" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>73</v>
@@ -2440,11 +2225,11 @@
       <c r="AY2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AZ2" t="s" s="2">
-        <v>182</v>
+      <c r="AZ2" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2463,33 +2248,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.5703125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="29.28515625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.85546875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.85546875"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.140625"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="15.140625"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="13.5703125"/>
-    <col min="29" max="29" customWidth="true" width="49.85546875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.140625"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="10.85546875"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="10.85546875"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="49.81640625" customWidth="1"/>
+    <col min="30" max="30" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -2615,10 +2400,10 @@
         <v>47</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AT1" s="2" t="s">
         <v>49</v>
@@ -2645,55 +2430,50 @@
         <v>56</v>
       </c>
       <c r="BB1" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:54" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="2">
-        <v>1234567890</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O2" s="8">
-        <v>45371</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="O2" s="8"/>
       <c r="P2" s="9">
         <v>0.64606481481481481</v>
       </c>
@@ -2701,7 +2481,7 @@
         <v>45371.646504629629</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>44</v>
@@ -2710,10 +2490,10 @@
         <v>37</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="W2" s="7">
         <v>10000</v>
@@ -2725,16 +2505,16 @@
         <v>48</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AD2" s="8">
         <v>45371</v>
@@ -2746,22 +2526,22 @@
         <v>1234567890</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="AH2" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AS2" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>50</v>
@@ -2773,10 +2553,10 @@
         <v>1234567890</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="AY2" s="3" t="s">
         <v>42</v>
@@ -2785,10 +2565,10 @@
         <v>1234567890</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/testData/CreateEntity/CreateEntity_OOFS_NewValues_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_NewValues_Test.xlsx
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="152">
   <si>
     <t>WorflowName</t>
   </si>
@@ -401,12 +401,91 @@
   </si>
   <si>
     <t>9932129670</t>
+  </si>
+  <si>
+    <t>3459979567</t>
+  </si>
+  <si>
+    <t>4574735508</t>
+  </si>
+  <si>
+    <t>4508497733</t>
+  </si>
+  <si>
+    <t>3930949958</t>
+  </si>
+  <si>
+    <t>8545733159</t>
+  </si>
+  <si>
+    <t>3117936452</t>
+  </si>
+  <si>
+    <t>2309330990</t>
+  </si>
+  <si>
+    <t>0114552483</t>
+  </si>
+  <si>
+    <t>2024-06-04</t>
+  </si>
+  <si>
+    <t>02:35:55 AM</t>
+  </si>
+  <si>
+    <t>2024-06-04 08:00:00 PM</t>
+  </si>
+  <si>
+    <t>CT: Tue, Jun 04, 2024 at 11:17 AM</t>
+  </si>
+  <si>
+    <t>3972211198</t>
+  </si>
+  <si>
+    <t>5152892671</t>
+  </si>
+  <si>
+    <t>1294097370</t>
+  </si>
+  <si>
+    <t>4492256412</t>
+  </si>
+  <si>
+    <t>CT: Tue, Jun 04, 2024 at 11:33 AM</t>
+  </si>
+  <si>
+    <t>CT: Tue, Jun 04, 2024 at 11:40 AM</t>
+  </si>
+  <si>
+    <t>CT: Tue, Jun 04, 2024 at 11:43 AM</t>
+  </si>
+  <si>
+    <t>7518333980</t>
+  </si>
+  <si>
+    <t>0994083056</t>
+  </si>
+  <si>
+    <t>3668990367</t>
+  </si>
+  <si>
+    <t>5573156545</t>
+  </si>
+  <si>
+    <t>CT: Tue, Jun 04, 2024 at 11:55 AM</t>
+  </si>
+  <si>
+    <t>CT: Tue, Jun 04, 2024 at 12:01 PM</t>
+  </si>
+  <si>
+    <t>CT: Tue, Jun 04, 2024 at 12:05 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -773,55 +852,55 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.26953125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="2"/>
-    <col min="10" max="10" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.7265625" style="2"/>
-    <col min="15" max="15" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.7265625" style="2"/>
-    <col min="17" max="17" width="15.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.7265625" style="2"/>
-    <col min="22" max="22" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.453125" style="2" customWidth="1"/>
-    <col min="34" max="34" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="31.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="43" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18.453125" style="2" customWidth="1"/>
-    <col min="46" max="46" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18" style="2" customWidth="1"/>
-    <col min="48" max="48" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="22.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="30.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="55" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="2" max="2" customWidth="true" style="2" width="22.26953125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="29.81640625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="26.54296875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="14.0"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="16.453125"/>
+    <col min="9" max="9" style="2" width="8.7265625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="12.54296875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="9.54296875"/>
+    <col min="13" max="14" style="2" width="8.7265625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="16" max="16" style="2" width="8.7265625"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="15.1796875"/>
+    <col min="18" max="19" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="10.453125"/>
+    <col min="21" max="21" style="2" width="8.7265625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="12.7265625"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="23.453125"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="11.7265625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="20.453125"/>
+    <col min="33" max="33" customWidth="true" style="2" width="20.453125"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.54296875"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="31.26953125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="15.81640625"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="38" max="40" bestFit="true" customWidth="true" style="2" width="17.81640625"/>
+    <col min="41" max="43" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.453125"/>
+    <col min="45" max="45" customWidth="true" style="2" width="18.453125"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="47" max="47" customWidth="true" style="2" width="18.0"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="10.26953125"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="14.1796875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="22.7265625"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="2" width="30.26953125"/>
+    <col min="55" max="16384" style="2" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.35">
@@ -984,7 +1063,7 @@
       <c r="BA1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BB1" t="s" s="2">
         <v>79</v>
       </c>
     </row>
@@ -1007,8 +1086,8 @@
       <c r="F2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>122</v>
+      <c r="G2" t="s" s="2">
+        <v>145</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>68</v>
@@ -1031,8 +1110,14 @@
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>101</v>
+      <c r="O2" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="P2" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="Q2" t="s" s="2">
+        <v>136</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
@@ -1070,11 +1155,14 @@
       <c r="AC2" s="6" t="s">
         <v>121</v>
       </c>
+      <c r="AD2" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AF2" s="2" t="s">
-        <v>123</v>
+      <c r="AF2" t="s" s="2">
+        <v>146</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1088,7 +1176,7 @@
       <c r="AJ2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AK2" t="s" s="2">
         <v>120</v>
       </c>
       <c r="AR2" s="2" t="s">
@@ -1103,8 +1191,8 @@
       <c r="AU2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AV2" s="2" t="s">
-        <v>124</v>
+      <c r="AV2" t="s" s="2">
+        <v>147</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>72</v>
@@ -1115,11 +1203,14 @@
       <c r="AY2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AZ2" s="2" t="s">
-        <v>125</v>
+      <c r="AZ2" t="s" s="2">
+        <v>148</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>74</v>
+      </c>
+      <c r="BB2" t="s" s="2">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1145,55 +1236,55 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="38.26953125" style="2" customWidth="1"/>
-    <col min="30" max="30" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.453125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="26.453125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="16.54296875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="23.81640625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.54296875"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.1796875"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.54296875"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.81640625"/>
+    <col min="29" max="29" customWidth="true" style="2" width="38.26953125"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.54296875"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.54296875"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.54296875"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.453125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="18.81640625"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.1796875"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.81640625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
+    <col min="53" max="16384" style="2" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.35">
@@ -1356,7 +1447,7 @@
       <c r="BA1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BB1" t="s" s="2">
         <v>79</v>
       </c>
     </row>
@@ -1379,8 +1470,8 @@
       <c r="F2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>122</v>
+      <c r="G2" t="s" s="2">
+        <v>145</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>90</v>
@@ -1403,8 +1494,14 @@
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>101</v>
+      <c r="O2" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="P2" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="Q2" t="s" s="2">
+        <v>136</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
@@ -1442,11 +1539,14 @@
       <c r="AC2" s="1" t="s">
         <v>121</v>
       </c>
+      <c r="AD2" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AF2" s="2" t="s">
-        <v>123</v>
+      <c r="AF2" t="s" s="2">
+        <v>146</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1475,8 +1575,8 @@
       <c r="AU2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AV2" s="2" t="s">
-        <v>124</v>
+      <c r="AV2" t="s" s="2">
+        <v>147</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>92</v>
@@ -1487,11 +1587,14 @@
       <c r="AY2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AZ2" s="2" t="s">
-        <v>125</v>
+      <c r="AZ2" t="s" s="2">
+        <v>148</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>93</v>
+      </c>
+      <c r="BB2" t="s" s="2">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1516,52 +1619,52 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="35.26953125" style="2" customWidth="1"/>
-    <col min="30" max="30" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="29.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="24.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.453125"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.54296875"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.1796875"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.54296875"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.81640625"/>
+    <col min="29" max="29" customWidth="true" style="2" width="35.26953125"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.54296875"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.54296875"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.453125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="15.1796875"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.54296875"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.453125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="24.54296875"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.1796875"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.81640625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
+    <col min="53" max="16384" style="2" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.35">
@@ -1747,8 +1850,8 @@
       <c r="F2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>122</v>
+      <c r="G2" t="s" s="2">
+        <v>145</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>94</v>
@@ -1813,8 +1916,8 @@
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AF2" s="2" t="s">
-        <v>123</v>
+      <c r="AF2" t="s" s="2">
+        <v>146</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1843,8 +1946,8 @@
       <c r="AU2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AV2" s="2" t="s">
-        <v>124</v>
+      <c r="AV2" t="s" s="2">
+        <v>147</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>76</v>
@@ -1855,8 +1958,8 @@
       <c r="AY2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AZ2" s="2" t="s">
-        <v>125</v>
+      <c r="AZ2" t="s" s="2">
+        <v>148</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>77</v>
@@ -1885,53 +1988,53 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="50.54296875" style="2" customWidth="1"/>
-    <col min="29" max="29" width="12.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.453125"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.54296875"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.1796875"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.54296875"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
+    <col min="28" max="28" customWidth="true" style="2" width="50.54296875"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.1796875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.54296875"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.54296875"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.54296875"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.453125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="12.54296875"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.1796875"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.81640625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
+    <col min="53" max="16384" style="2" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.35">
@@ -2117,8 +2220,8 @@
       <c r="F2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>122</v>
+      <c r="G2" t="s" s="2">
+        <v>145</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>97</v>
@@ -2183,8 +2286,8 @@
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AF2" s="2" t="s">
-        <v>123</v>
+      <c r="AF2" t="s" s="2">
+        <v>146</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -2213,8 +2316,8 @@
       <c r="AU2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AV2" s="2" t="s">
-        <v>124</v>
+      <c r="AV2" t="s" s="2">
+        <v>147</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>99</v>
@@ -2225,8 +2328,8 @@
       <c r="AY2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AZ2" s="2" t="s">
-        <v>125</v>
+      <c r="AZ2" t="s" s="2">
+        <v>148</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>100</v>
@@ -2254,19 +2357,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="49.81640625" customWidth="1"/>
-    <col min="30" max="30" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.54296875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.26953125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.81640625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.1796875"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="15.1796875"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.54296875"/>
+    <col min="29" max="29" customWidth="true" width="49.81640625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="10.1796875"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="10.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.35">

--- a/testData/CreateEntity/CreateEntity_OOFS_NewValues_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_NewValues_Test.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="233">
   <si>
     <t>WorflowName</t>
   </si>
@@ -479,6 +479,249 @@
   </si>
   <si>
     <t>CT: Tue, Jun 04, 2024 at 12:05 PM</t>
+  </si>
+  <si>
+    <t>9840041173</t>
+  </si>
+  <si>
+    <t>9840021512</t>
+  </si>
+  <si>
+    <t>9840040829</t>
+  </si>
+  <si>
+    <t>9840048194</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2024-07-11</t>
+  </si>
+  <si>
+    <t>2024-07-14 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>CT: Thu, Jul 11, 2024 at 3:54 PM</t>
+  </si>
+  <si>
+    <t>CT: Thu, Jul 11, 2024 at 4:06 PM</t>
+  </si>
+  <si>
+    <t>CT: Thu, Jul 11, 2024 at 4:10 PM</t>
+  </si>
+  <si>
+    <t>9840005245</t>
+  </si>
+  <si>
+    <t>9840008094</t>
+  </si>
+  <si>
+    <t>9840037449</t>
+  </si>
+  <si>
+    <t>9840045040</t>
+  </si>
+  <si>
+    <t>9840074859</t>
+  </si>
+  <si>
+    <t>9840039921</t>
+  </si>
+  <si>
+    <t>9840047548</t>
+  </si>
+  <si>
+    <t>9840062287</t>
+  </si>
+  <si>
+    <t>9840086817</t>
+  </si>
+  <si>
+    <t>9840052931</t>
+  </si>
+  <si>
+    <t>9840030604</t>
+  </si>
+  <si>
+    <t>9840078889</t>
+  </si>
+  <si>
+    <t>CT: Thu, Jul 11, 2024 at 5:12 PM</t>
+  </si>
+  <si>
+    <t>9840035237</t>
+  </si>
+  <si>
+    <t>9840066303</t>
+  </si>
+  <si>
+    <t>9840094236</t>
+  </si>
+  <si>
+    <t>9840078394</t>
+  </si>
+  <si>
+    <t>CT: Thu, Jul 11, 2024 at 6:09 PM</t>
+  </si>
+  <si>
+    <t>CT: Thu, Jul 11, 2024 at 6:16 PM</t>
+  </si>
+  <si>
+    <t>CT: Thu, Jul 11, 2024 at 6:19 PM</t>
+  </si>
+  <si>
+    <t>9840035962</t>
+  </si>
+  <si>
+    <t>9840016191</t>
+  </si>
+  <si>
+    <t>9840041435</t>
+  </si>
+  <si>
+    <t>9840045755</t>
+  </si>
+  <si>
+    <t>2024-07-12</t>
+  </si>
+  <si>
+    <t>2024-07-15 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Jul 12, 2024 at 11:01 AM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Jul 12, 2024 at 11:08 AM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Jul 12, 2024 at 11:11 AM</t>
+  </si>
+  <si>
+    <t>9840054384</t>
+  </si>
+  <si>
+    <t>9840025063</t>
+  </si>
+  <si>
+    <t>9840097036</t>
+  </si>
+  <si>
+    <t>9840041830</t>
+  </si>
+  <si>
+    <t>CT: Fri, Jul 12, 2024 at 12:05 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Jul 12, 2024 at 12:12 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Jul 12, 2024 at 12:15 PM</t>
+  </si>
+  <si>
+    <t>9840023534</t>
+  </si>
+  <si>
+    <t>9840093815</t>
+  </si>
+  <si>
+    <t>9840055163</t>
+  </si>
+  <si>
+    <t>9840086143</t>
+  </si>
+  <si>
+    <t>CT: Fri, Jul 12, 2024 at 12:35 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Jul 12, 2024 at 12:42 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Jul 12, 2024 at 12:45 PM</t>
+  </si>
+  <si>
+    <t>9840045571</t>
+  </si>
+  <si>
+    <t>9840015949</t>
+  </si>
+  <si>
+    <t>9840088506</t>
+  </si>
+  <si>
+    <t>9840004369</t>
+  </si>
+  <si>
+    <t>CT: Fri, Jul 12, 2024 at 1:03 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Jul 12, 2024 at 1:10 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Jul 12, 2024 at 1:13 PM</t>
+  </si>
+  <si>
+    <t>9840044060</t>
+  </si>
+  <si>
+    <t>9840070725</t>
+  </si>
+  <si>
+    <t>9840051485</t>
+  </si>
+  <si>
+    <t>9840035432</t>
+  </si>
+  <si>
+    <t>CT: Fri, Jul 12, 2024 at 1:27 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Jul 12, 2024 at 1:34 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Jul 12, 2024 at 1:38 PM</t>
+  </si>
+  <si>
+    <t>9840046055</t>
+  </si>
+  <si>
+    <t>9840062711</t>
+  </si>
+  <si>
+    <t>9840015600</t>
+  </si>
+  <si>
+    <t>9840012745</t>
+  </si>
+  <si>
+    <t>CT: Fri, Jul 12, 2024 at 1:59 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Jul 12, 2024 at 2:06 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Jul 12, 2024 at 2:10 PM</t>
+  </si>
+  <si>
+    <t>9840063560</t>
+  </si>
+  <si>
+    <t>9840075286</t>
+  </si>
+  <si>
+    <t>9840081397</t>
+  </si>
+  <si>
+    <t>9840056067</t>
+  </si>
+  <si>
+    <t>CT: Fri, Jul 12, 2024 at 2:28 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Jul 12, 2024 at 2:35 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Jul 12, 2024 at 2:38 PM</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1330,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>145</v>
+        <v>226</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>68</v>
@@ -1111,13 +1354,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
@@ -1156,13 +1399,13 @@
         <v>121</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>146</v>
+        <v>227</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1177,7 +1420,7 @@
         <v>118</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="AR2" s="2" t="s">
         <v>87</v>
@@ -1192,7 +1435,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>147</v>
+        <v>228</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>72</v>
@@ -1204,13 +1447,13 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>148</v>
+        <v>229</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>74</v>
       </c>
       <c r="BB2" t="s" s="2">
-        <v>149</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -1471,7 +1714,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>145</v>
+        <v>226</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>90</v>
@@ -1495,13 +1738,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
@@ -1540,13 +1783,13 @@
         <v>121</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>146</v>
+        <v>227</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1576,7 +1819,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>147</v>
+        <v>228</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>92</v>
@@ -1588,13 +1831,13 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>148</v>
+        <v>229</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>93</v>
       </c>
       <c r="BB2" t="s" s="2">
-        <v>151</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -1851,7 +2094,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>145</v>
+        <v>226</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>94</v>
@@ -1917,7 +2160,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>146</v>
+        <v>227</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1947,7 +2190,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>147</v>
+        <v>228</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>76</v>
@@ -1959,7 +2202,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>148</v>
+        <v>229</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>77</v>
@@ -2221,7 +2464,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>145</v>
+        <v>226</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>97</v>
@@ -2287,7 +2530,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>146</v>
+        <v>227</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -2317,7 +2560,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>147</v>
+        <v>228</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>99</v>
@@ -2329,7 +2572,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>148</v>
+        <v>229</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>100</v>

--- a/testData/CreateEntity/CreateEntity_OOFS_NewValues_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_NewValues_Test.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="246">
   <si>
     <t>WorflowName</t>
   </si>
@@ -722,6 +722,45 @@
   </si>
   <si>
     <t>CT: Fri, Jul 12, 2024 at 2:38 PM</t>
+  </si>
+  <si>
+    <t>9840071191</t>
+  </si>
+  <si>
+    <t>9840000921</t>
+  </si>
+  <si>
+    <t>9840098314</t>
+  </si>
+  <si>
+    <t>9840021756</t>
+  </si>
+  <si>
+    <t>9840038822</t>
+  </si>
+  <si>
+    <t>9840011089</t>
+  </si>
+  <si>
+    <t>9840036820</t>
+  </si>
+  <si>
+    <t>9840019753</t>
+  </si>
+  <si>
+    <t>06-01-2025</t>
+  </si>
+  <si>
+    <t>09-01-2025 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jan 06, 2025 at 1:12 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jan 06, 2025 at 1:20 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jan 06, 2025 at 1:24 PM</t>
   </si>
 </sst>
 </file>
@@ -1330,7 +1369,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>68</v>
@@ -1354,13 +1393,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>101</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>187</v>
+        <v>242</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
@@ -1399,13 +1438,13 @@
         <v>121</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1435,7 +1474,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>72</v>
@@ -1447,13 +1486,13 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>74</v>
       </c>
       <c r="BB2" t="s" s="2">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -1714,7 +1753,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>90</v>
@@ -1738,13 +1777,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>101</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>187</v>
+        <v>242</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
@@ -1783,13 +1822,13 @@
         <v>121</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1819,7 +1858,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>92</v>
@@ -1831,13 +1870,13 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>93</v>
       </c>
       <c r="BB2" t="s" s="2">
-        <v>232</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -2094,7 +2133,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>94</v>
@@ -2160,7 +2199,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -2190,7 +2229,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>76</v>
@@ -2202,7 +2241,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>77</v>
@@ -2464,7 +2503,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>97</v>
@@ -2530,7 +2569,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -2560,7 +2599,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>99</v>
@@ -2572,7 +2611,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>100</v>

--- a/testData/CreateEntity/CreateEntity_OOFS_NewValues_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_NewValues_Test.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="253">
   <si>
     <t>WorflowName</t>
   </si>
@@ -761,6 +761,27 @@
   </si>
   <si>
     <t>CT: Mon, Jan 06, 2025 at 1:24 PM</t>
+  </si>
+  <si>
+    <t>9840025402</t>
+  </si>
+  <si>
+    <t>9840005389</t>
+  </si>
+  <si>
+    <t>9840061003</t>
+  </si>
+  <si>
+    <t>9840068012</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jan 06, 2025 at 6:37 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jan 06, 2025 at 6:46 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jan 06, 2025 at 6:50 PM</t>
   </si>
 </sst>
 </file>
@@ -1369,7 +1390,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>68</v>
@@ -1444,7 +1465,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1474,7 +1495,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>72</v>
@@ -1486,13 +1507,13 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>74</v>
       </c>
       <c r="BB2" t="s" s="2">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -1753,7 +1774,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>90</v>
@@ -1828,7 +1849,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1858,7 +1879,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>92</v>
@@ -1870,13 +1891,13 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>93</v>
       </c>
       <c r="BB2" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -2133,7 +2154,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>94</v>
@@ -2199,7 +2220,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -2229,7 +2250,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>76</v>
@@ -2241,7 +2262,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>77</v>
@@ -2503,7 +2524,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>97</v>
@@ -2569,7 +2590,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -2599,7 +2620,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>99</v>
@@ -2611,7 +2632,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>100</v>
